--- a/Story/3 - Psyche Deepdive/10 - Coronation Day/Coronation Day.xlsx
+++ b/Story/3 - Psyche Deepdive/10 - Coronation Day/Coronation Day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\10 - Coronation Day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0639DA-169D-437A-9D07-5B22604C57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D61428-9DB8-4047-B162-55B65528459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17325" windowHeight="16305" xr2:uid="{795E1D53-9C58-41A4-99EC-87E5123DB2C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{795E1D53-9C58-41A4-99EC-87E5123DB2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tulu Deepdive" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="4158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="4159">
   <si>
     <t>Ông sẽ thấy rõ Lemuria chìm xuống biển sâu, không ai sống sót.</t>
   </si>
@@ -12216,9 +12216,6 @@
     <t>加冕の日</t>
   </si>
   <si>
-    <t>가관의 날</t>
-  </si>
-  <si>
     <t>วันราชาภิเษก</t>
   </si>
   <si>
@@ -12249,9 +12246,6 @@
     <t>栄光、尊敬、無限の権力、王の地位は至高無上である。\n玉座に登るのに必要なのは神に選ばれることだけだ。\nでは、その全てにはどのような代価が伴うのか？</t>
   </si>
   <si>
-    <t>영광, 경외, 무한한 권력, 왕의 위치는 최고입니다. \n왕좌에 오르기 위해서는 신에게 선택받아야 합니다. \n그렇다면, 이 모든 것에는 어떤 대가가 따를까요?</t>
-  </si>
-  <si>
     <t>เกียรติยศ ความเคารพ และอำนาจที่ไร้ขีดจำกัด ตำแหน่งของกษัตริย์เป็นสิ่งสูงสุดเหนือทุกสิ่ง \n สิ่งที่จำเป็นในการขึ้นสู่บัลลังก์คือการได้รับเลือกจากเทพเจ้า \n แล้วราคาที่ต้องจ่ายสำหรับทั้งหมดนี้จะเป็นเช่นใด?</t>
   </si>
   <si>
@@ -12514,13 +12508,22 @@
   </si>
   <si>
     <t>Stage_71852_Name</t>
+  </si>
+  <si>
+    <t>대관의 날</t>
+  </si>
+  <si>
+    <t>영광, 경외, 무한한 권력- 왕의 지위는 지극히 높다.\n왕좌에 오르기 위해 필요한 것은 오직 신의 선택뿐이다.\n그렇다면, 이 모든 것에는 어떤 대가가 따를까?</t>
+  </si>
+  <si>
+    <t>재난</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12542,6 +12545,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12567,10 +12576,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12584,9 +12594,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{16447B7F-C50B-44FB-8500-0BB5B6E1C16B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12802,68 +12816,68 @@
   <dimension ref="A1:S436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4088</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4089</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4090</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4091</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4092</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4093</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4094</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4095</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4096</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>4097</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>4098</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>4099</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>4100</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>4101</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>4102</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>4103</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>4104</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>4105</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4106</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12900,34 +12914,34 @@
       <c r="L2" t="s">
         <v>4057</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>4156</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" t="s">
         <v>4058</v>
       </c>
-      <c r="N2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4059</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4060</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B3" t="s">
         <v>4062</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4063</v>
       </c>
       <c r="C3" t="s">
         <v>4051</v>
@@ -12939,51 +12953,51 @@
         <v>4052</v>
       </c>
       <c r="F3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="H3" t="s">
         <v>4064</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4065</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4066</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="s">
         <v>4067</v>
       </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>4157</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="s">
         <v>4068</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>4069</v>
       </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>4070</v>
-      </c>
-      <c r="R3" t="s">
-        <v>4071</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4072</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B4" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="C4" t="s">
         <v>4051</v>
@@ -12995,61 +13009,61 @@
         <v>4052</v>
       </c>
       <c r="F4" t="s">
+        <v>4073</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="I4" t="s">
         <v>4075</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>4076</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>4077</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>4078</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>4079</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>4080</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>4081</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>4082</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>4083</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>4084</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>4085</v>
-      </c>
-      <c r="R4" t="s">
-        <v>4086</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4087</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C6" t="s">
         <v>4107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4109</v>
       </c>
       <c r="D6">
         <v>1862</v>
       </c>
       <c r="E6" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F6" t="s">
         <v>4053</v>
@@ -13093,58 +13107,58 @@
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="B7" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="C7" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D7">
         <v>1862</v>
       </c>
       <c r="E7" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F7" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="H7" t="s">
+        <v>4111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4112</v>
+      </c>
+      <c r="J7" t="s">
         <v>4113</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>4114</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>4115</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="s">
         <v>4116</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
         <v>4117</v>
       </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>4118</v>
-      </c>
-      <c r="R7" t="s">
-        <v>4119</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4120</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20547,19 +20561,19 @@
     </row>
     <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="B137" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="C137" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D137">
         <v>1863</v>
       </c>
       <c r="E137" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F137" t="s">
         <v>4053</v>
@@ -20568,7 +20582,7 @@
         <v>2799</v>
       </c>
       <c r="I137" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="J137" t="s">
         <v>2797</v>
@@ -20579,8 +20593,8 @@
       <c r="L137" t="s">
         <v>2796</v>
       </c>
-      <c r="M137" t="s">
-        <v>2795</v>
+      <c r="M137" s="5" t="s">
+        <v>4158</v>
       </c>
       <c r="N137" t="s">
         <v>2794</v>
@@ -20603,40 +20617,40 @@
     </row>
     <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="B138" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="C138" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D138">
         <v>1863</v>
       </c>
       <c r="E138" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F138" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="H138" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="I138" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="J138" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="K138" t="e">
         <v>#N/A</v>
       </c>
       <c r="L138" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="M138" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="N138" t="e">
         <v>#N/A</v>
@@ -20648,13 +20662,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q138" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="R138" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="S138" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25125,19 +25139,19 @@
     </row>
     <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="B218" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="C218" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D218">
         <v>1864</v>
       </c>
       <c r="E218" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F218" t="s">
         <v>4053</v>
@@ -25181,40 +25195,40 @@
     </row>
     <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="B219" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="C219" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D219">
         <v>1864</v>
       </c>
       <c r="E219" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F219" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="H219" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="I219" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="J219" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="K219" t="e">
         <v>#N/A</v>
       </c>
       <c r="L219" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="M219" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="N219" t="e">
         <v>#N/A</v>
@@ -25226,13 +25240,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q219" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="R219" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="S219" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="220" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31774,19 +31788,19 @@
     </row>
     <row r="335" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="B335" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="C335" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D335">
         <v>1865</v>
       </c>
       <c r="E335" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F335" t="s">
         <v>4053</v>
@@ -31830,40 +31844,40 @@
     </row>
     <row r="336" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="B336" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="C336" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="D336">
         <v>1865</v>
       </c>
       <c r="E336" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="F336" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="H336" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="I336" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="J336" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="K336" t="e">
         <v>#N/A</v>
       </c>
       <c r="L336" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="M336" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="N336" t="e">
         <v>#N/A</v>
@@ -31875,13 +31889,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q336" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="R336" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="S336" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="337" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
